--- a/data/income_statement/3digits/total/263_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/263_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>263-Manufacture of communication equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>263-Manufacture of communication equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>401959.2125</v>
@@ -959,34 +865,39 @@
         <v>465296.74398</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>506916.48106</v>
+        <v>508047.1871799999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>668109.19175</v>
+        <v>668239.7707999999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>763959.0854200001</v>
+        <v>764243.02839</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>689942.2431900001</v>
+        <v>884030.3405299999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1107810.49812</v>
+        <v>1107852.33812</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1304502.34171</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1713098.27385</v>
+        <v>1717550.34965</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1388697.13155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1471771.14565</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2355268.987</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>353860.98752</v>
@@ -998,34 +909,39 @@
         <v>420415.1634</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>429760.06387</v>
+        <v>429995.4523</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>516835.86866</v>
+        <v>516966.44771</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>613315.52039</v>
+        <v>613599.4633600001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>631890.2620799999</v>
+        <v>669234.3556</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>754847.6460900001</v>
+        <v>754889.48609</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>951302.4757999999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1534579.47005</v>
+        <v>1538187.395</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1163443.3175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1243917.65453</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1999996.501</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>42858.33948999999</v>
@@ -1037,7 +953,7 @@
         <v>40134.50585</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>71223.33898</v>
+        <v>71613.70307999999</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>144118.9564</v>
@@ -1046,7 +962,7 @@
         <v>140103.85711</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>46859.42390000001</v>
+        <v>202777.01884</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>330965.433</v>
@@ -1055,16 +971,21 @@
         <v>333884.64987</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>139411.85177</v>
+        <v>140256.00262</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>145987.61341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>146545.54664</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>323872.105</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>5239.885490000001</v>
@@ -1076,7 +997,7 @@
         <v>4747.07473</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5933.078210000001</v>
+        <v>6438.0318</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>7154.36669</v>
@@ -1085,7 +1006,7 @@
         <v>10539.70792</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>11192.55721</v>
+        <v>12018.96609</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>21997.41903</v>
@@ -1097,13 +1018,18 @@
         <v>39106.95203</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>79266.20063999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>81307.94447999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>31400.381</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>15459.90628</v>
@@ -1115,7 +1041,7 @@
         <v>46157.05327</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>53771.2148</v>
+        <v>53775.18889</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>82599.27828</v>
@@ -1124,7 +1050,7 @@
         <v>123340.27672</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>112653.86818</v>
+        <v>144286.05928</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>153298.16004</v>
@@ -1136,13 +1062,18 @@
         <v>266492.58849</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>187697.2801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>206057.90741</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>247866.632</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>7024.575599999999</v>
@@ -1154,16 +1085,16 @@
         <v>8704.840699999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7051.555370000001</v>
+        <v>7052.116450000001</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>10467.39265</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>25071.76721999999</v>
+        <v>25071.76722</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>11253.45999</v>
+        <v>25483.54414</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>13088.63781</v>
@@ -1175,13 +1106,18 @@
         <v>34283.44551</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>38615.25576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>56974.66907</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>49970.105</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>7971.911359999999</v>
@@ -1190,10 +1126,10 @@
         <v>23281.34192</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>37139.28796</v>
+        <v>37139.28795999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>46410.15987</v>
+        <v>46413.57288</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>71621.77765</v>
@@ -1202,7 +1138,7 @@
         <v>97846.97815000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>101199.04108</v>
+        <v>118601.14803</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>139974.51987</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>148384.37139</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>197002.662</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>463.41932</v>
+        <v>463.4193200000001</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>585.2601999999999</v>
@@ -1235,7 +1176,7 @@
         <v>309.49956</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>510.10798</v>
+        <v>510.1079800000001</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>421.53135</v>
@@ -1253,13 +1194,18 @@
         <v>1297.9883</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>697.6529499999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>698.86695</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>893.865</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>386499.30622</v>
@@ -1271,34 +1217,39 @@
         <v>419139.6907100001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>453145.26626</v>
+        <v>454271.99829</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>585509.91347</v>
+        <v>585640.49252</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>640618.8086999999</v>
+        <v>640902.7516699999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>577288.37501</v>
+        <v>739744.28125</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>954512.3380799999</v>
+        <v>954554.1780799999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1102405.54824</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1446605.68536</v>
+        <v>1451057.76116</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1200999.85145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1265713.23824</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2107402.355</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>312879.26138</v>
@@ -1310,34 +1261,39 @@
         <v>329147.63777</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>338683.15744</v>
+        <v>339091.30266</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>422616.45707</v>
+        <v>422720.9508399999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>462461.80342</v>
+        <v>462663.95157</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>412301.79211</v>
+        <v>545718.77027</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>667840.6252799999</v>
+        <v>667920.3311600001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>735303.5327399999</v>
+        <v>735303.5327400001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1046449.01516</v>
+        <v>1050827.13874</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>924565.9720399999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>940820.7901400001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1607166.423</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>167845.27703</v>
@@ -1349,34 +1305,39 @@
         <v>247505.37773</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>271046.39856</v>
+        <v>271201.62475</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>346347.75612</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>395838.6923700001</v>
+        <v>395838.69237</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>325972.0591</v>
+        <v>459389.03726</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>552945.3943099999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>636422.66328</v>
+        <v>636422.6632799999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>898063.0386100002</v>
+        <v>898071.3257400001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>739236.4876999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>751162.23116</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>991154.524</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>106671.76657</v>
@@ -1385,37 +1346,42 @@
         <v>139860.25741</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>60543.00965</v>
+        <v>60543.00965000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>44998.00181</v>
+        <v>45238.99759000001</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>48309.24397</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>45702.52031</v>
+        <v>45786.57031</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>61795.96466999999</v>
+        <v>61795.96467</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>84168.21365999999</v>
+        <v>84180.55365999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>68931.10578999999</v>
+        <v>68931.10579</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>114200.96442</v>
+        <v>118570.29067</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>141675.68035</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>144874.00516</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>561716.3320000001</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>16992.24351</v>
@@ -1427,13 +1393,13 @@
         <v>21048.83387</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>22600.15179</v>
+        <v>22612.07504</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>27942.49348</v>
+        <v>28046.98725</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>20889.43013</v>
+        <v>21007.52828</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>23094.93407</v>
@@ -1445,16 +1411,21 @@
         <v>23191.63575</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>28114.05795</v>
+        <v>28114.56815</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>28385.9305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>28533.23036</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>44817.756</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>21369.97427</v>
@@ -1478,7 +1449,7 @@
         <v>1438.83427</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1268.99764</v>
+        <v>1336.36352</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>6758.12792</v>
@@ -1487,52 +1458,62 @@
         <v>6070.95418</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>15267.87349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16251.32346</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9477.811</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>73620.04484</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>77902.37549000001</v>
+        <v>77902.37548999999</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>89992.05293999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>114462.10882</v>
+        <v>115180.69563</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>162893.4564</v>
+        <v>162919.54168</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>178157.00528</v>
+        <v>178238.8001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>164986.5829</v>
+        <v>194025.51098</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>286671.7128</v>
+        <v>286633.84692</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>367102.0155</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>400156.6702000001</v>
+        <v>400230.62242</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>276433.8794100001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>324892.4481</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>500235.932</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>51256.15595</v>
@@ -1544,34 +1525,39 @@
         <v>76925.57043000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>82238.76216999999</v>
+        <v>82933.36702999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>106703.25906</v>
+        <v>106969.3574</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>119157.43657</v>
+        <v>119445.15848</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>100668.18441</v>
+        <v>147316.31793</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>183411.52823</v>
+        <v>183413.17823</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>214662.58915</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>181518.0456</v>
+        <v>181738.19004</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>226573.29197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>230373.99037</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>281785.386</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2824.33433</v>
@@ -1583,7 +1569,7 @@
         <v>7702.76307</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7804.26931</v>
+        <v>7804.269310000001</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>11185.13652</v>
@@ -1592,7 +1578,7 @@
         <v>20574.69408</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6002.29743</v>
+        <v>18604.23062</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>33427.94377</v>
@@ -1604,13 +1590,18 @@
         <v>12257.51349</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>13447.61378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14416.72523</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>29308.984</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>19115.18496</v>
@@ -1622,73 +1613,83 @@
         <v>32122.81952</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>37142.99445000001</v>
+        <v>37148.93445</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>48452.98090000001</v>
+        <v>48459.49021</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>34275.90366</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>40743.74391</v>
+        <v>44712.09012</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>56912.61481000001</v>
+        <v>56912.61480999999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>62701.03697</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>81647.91166</v>
+        <v>81650.32249000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>89284.52912000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>89349.46622</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>101670.328</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>29316.63666</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>33125.39802</v>
+        <v>33125.39801999999</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>37099.98784</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>37291.49840999999</v>
+        <v>37980.16327</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>47065.14163999999</v>
+        <v>47324.73067</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>64306.83883</v>
+        <v>64594.56074</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>53922.14307000001</v>
+        <v>83999.99718999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>93070.96965</v>
+        <v>93072.61964999999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>111018.88034</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>87612.62045</v>
+        <v>87830.35406</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>123841.14907</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>126607.79892</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>150806.074</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>22363.88889</v>
@@ -1700,34 +1701,39 @@
         <v>13066.48251</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>32223.34665</v>
+        <v>32247.3286</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>56190.19734000001</v>
+        <v>55950.18428</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>58999.56871</v>
+        <v>58793.64162</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>64318.39849</v>
+        <v>46709.19305</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>103260.18457</v>
+        <v>103220.66869</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>152439.42635</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>218638.6246</v>
+        <v>218492.43238</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>49860.58744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>94518.45772999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>218450.546</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>15332.99566</v>
@@ -1739,34 +1745,39 @@
         <v>23424.81593</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>17967.40455</v>
+        <v>18016.95771</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>41989.587</v>
+        <v>41989.58727</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>40185.88806</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>49855.46051999999</v>
+        <v>59673.90692</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>69308.19708</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>68129.7938</v>
+        <v>68129.79380000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>168670.41978</v>
+        <v>168672.72955</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>151496.79157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>158560.92653</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>184399.621</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1889.88638</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>30800</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1.83913</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1358.24721</v>
@@ -1856,7 +1877,7 @@
         <v>852.2010900000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1324.43721</v>
+        <v>1333.4702</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>2561.76979</v>
@@ -1865,7 +1886,7 @@
         <v>3011.59155</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3833.5062</v>
+        <v>4084.58728</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>4061.58088</v>
@@ -1877,13 +1898,18 @@
         <v>12758.50028</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>13036.92427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14055.0227</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>7483.516</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>282.3859</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2993.332</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>207.58887</v>
@@ -1934,7 +1965,7 @@
         <v>124.30229</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>86.75236</v>
+        <v>89.43322999999999</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>612.8094199999999</v>
@@ -1952,16 +1983,21 @@
         <v>613.06287</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>208.19767</v>
+        <v>215.5855</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>337.63807</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>715.273</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>186.4983</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>3.18546</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2641.522</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>10158.51726</v>
@@ -2012,19 +2053,19 @@
         <v>15612.39424</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>8904.55179</v>
+        <v>8942.391089999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>22873.10027</v>
+        <v>22873.10054</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>27705.52846</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>38979.90319</v>
+        <v>48545.52784999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>52746.87953</v>
+        <v>52746.87953000001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>48094.36903</v>
@@ -2033,13 +2074,18 @@
         <v>95684.69862000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>46186.29728</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>52230.59652</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>119021.613</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>19.45716</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1228.57545</v>
@@ -2138,7 +2194,7 @@
         <v>3031.3064</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6296.067289999999</v>
+        <v>6297.807950000001</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>2762.67811</v>
@@ -2147,16 +2203,21 @@
         <v>7374.52277</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>49259.06195</v>
+        <v>49253.98389</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>61132.74649</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>61134.48378</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>47144.365</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>10887.84001</v>
@@ -2168,37 +2229,42 @@
         <v>17121.51932</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>12632.21125</v>
+        <v>12684.98782</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>26705.87102</v>
+        <v>26735.41796</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>31018.7005</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>46720.96099</v>
+        <v>61163.58083000001</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>57486.47166</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>53327.42450000001</v>
+        <v>53327.4245</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>120144.23264</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>58450.08992999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>59582.09086</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>106901.817</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>483.0159200000001</v>
+        <v>483.01592</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>90.31415</v>
@@ -2228,19 +2294,24 @@
         <v>62.35715</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>35.18588</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>942.8017600000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>24.987</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>654.8140400000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>586.7314800000001</v>
+        <v>586.73148</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>640.83438</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>7350.98461</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>2042.309</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.3551</v>
@@ -2308,35 +2384,40 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>25.123</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>9147.411910000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>8536.995879999999</v>
+        <v>8536.99588</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>15709.39471</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8234.59175</v>
+        <v>8287.36832</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>22521.66141</v>
+        <v>22551.20835</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>27796.81817</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>43226.65016</v>
+        <v>57616.30179999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>49450.62349999999</v>
+        <v>49450.6235</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>47774.80432</v>
@@ -2345,13 +2426,18 @@
         <v>114661.80438</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>42749.20612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>42973.19512999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>102624.252</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>15.07895</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>587.16409</v>
+        <v>587.1640900000001</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>2369.50162</v>
@@ -2450,7 +2546,7 @@
         <v>874.7145899999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1046.59243</v>
+        <v>1099.56063</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>1773.26294</v>
@@ -2462,34 +2558,39 @@
         <v>2855.13625</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>8314.713320000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8315.10936</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2185.146</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>6467.202</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6820.059929999999</v>
+        <v>6820.05993</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>10660.35201</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12185.13197</v>
+        <v>12193.73325</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>13531.88673</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>11121.62929</v>
+        <v>11124.16739</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>16023.21927</v>
+        <v>17690.76839</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>19513.89976</v>
@@ -2498,37 +2599,42 @@
         <v>24992.39771</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>32478.44557</v>
+        <v>32481.38393</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>34313.0276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>34351.8412</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>34063.093</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>5985.18202</v>
+        <v>5985.182019999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6503.25346</v>
+        <v>6503.253460000001</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>10125.34447</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>11904.46744</v>
+        <v>11913.06872</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>13413.07438</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>10435.78125</v>
+        <v>10438.31935</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>11349.85788</v>
+        <v>13017.407</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>14653.22501</v>
@@ -2537,16 +2643,21 @@
         <v>21856.64203</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>30353.06204</v>
+        <v>30356.0004</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>32950.42116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>32989.23476</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>33585.257</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>482.01998</v>
@@ -2564,7 +2675,7 @@
         <v>118.81235</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>685.84804</v>
+        <v>685.8480400000001</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>4673.36139</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1362.60644</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>477.836</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>20341.84254</v>
@@ -2597,34 +2713,39 @@
         <v>8709.427109999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>25373.40798</v>
+        <v>25385.56524</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>57942.02658999999</v>
+        <v>57672.46686</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>57045.12698</v>
+        <v>56836.66179</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>51429.67875000001</v>
+        <v>27528.75075</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>95568.01023</v>
+        <v>95528.49434999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>142249.39794</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>234686.36617</v>
+        <v>234539.54536</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>108594.26148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>159145.4522</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>261885.257</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1039.04889</v>
@@ -2636,16 +2757,16 @@
         <v>1770.8739</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1394.89846</v>
+        <v>1410.41438</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>2155.79029</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>10404.99211</v>
+        <v>10460.63121</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3001.10477</v>
+        <v>3509.774460000001</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>3968.56713</v>
@@ -2654,19 +2775,24 @@
         <v>5909.166439999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>6460.64767</v>
+        <v>6461.59504</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7257.09407</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7274.264949999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>9636.138999999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>47.79640999999999</v>
+        <v>47.79641</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>247.9029</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>1.48846</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>39.504</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>991.25248</v>
+        <v>991.2524800000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>1215.12284</v>
@@ -2714,16 +2845,16 @@
         <v>1081.38919</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1391.70286</v>
+        <v>1407.21878</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>2147.36528</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>10401.84886</v>
+        <v>10457.48796</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2686.42595</v>
+        <v>3195.09564</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>3967.95062</v>
@@ -2732,19 +2863,24 @@
         <v>5893.49032</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>5966.88762</v>
+        <v>5967.834989999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7255.605610000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7272.77649</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>9596.635</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4943.694679999999</v>
+        <v>4943.69468</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>5491.84678</v>
@@ -2753,34 +2889,39 @@
         <v>16912.32123</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7704.270289999999</v>
+        <v>7714.99664</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3719.63131</v>
+        <v>3720.21579</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>12941.42587</v>
+        <v>12941.75777</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>9964.03559</v>
+        <v>13031.05046</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>9595.612419999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6448.291050000001</v>
+        <v>6448.29105</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>15411.20244</v>
+        <v>15531.27506</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>7928.33045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>8221.283280000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>24157.691</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1486.41049</v>
@@ -2795,10 +2936,10 @@
         <v>1024.56793</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>895.6250499999999</v>
+        <v>895.6250500000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>802.7486700000001</v>
+        <v>802.7486699999999</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>875.2493700000001</v>
@@ -2807,7 +2948,7 @@
         <v>581.2795800000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>828.3353799999999</v>
+        <v>828.33538</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>7793.02033</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1247.54608</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>16870.686</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>34.49985</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>101.0413</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>653.079</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3422.78434</v>
@@ -2870,16 +3021,16 @@
         <v>15638.61471</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6377.6674</v>
+        <v>6388.393749999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2370.30261</v>
+        <v>2370.88709</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>12097.68035</v>
+        <v>12098.01225</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7623.63287</v>
+        <v>10690.64774</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>8984.669619999999</v>
@@ -2888,16 +3039,21 @@
         <v>5476.54384</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7207.754120000001</v>
+        <v>7327.82674</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6579.74307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6872.695900000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>6633.926</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>16437.19675</v>
@@ -2906,37 +3062,42 @@
         <v>10058.52223</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-6432.020219999999</v>
+        <v>-6432.02022</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>19064.03615</v>
+        <v>19080.98298</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>56378.18557000001</v>
+        <v>56108.04136</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>54508.69322</v>
+        <v>54355.53522999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>44466.74793</v>
+        <v>18007.47475</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>89940.96493999999</v>
+        <v>89901.44905999998</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>141710.27333</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>225735.8114</v>
+        <v>225469.86534</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>107923.0251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>158198.43387</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>247363.705</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>3871.17296</v>
@@ -2948,7 +3109,7 @@
         <v>3999.41059</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4263.67998</v>
+        <v>4269.41462</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>8748.767210000002</v>
@@ -2966,52 +3127,60 @@
         <v>20563.52771</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>34254.79670000001</v>
+        <v>34254.7967</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>22831.29644</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>25546.23213</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>22927.171</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>12566.02379</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>6460.65619</v>
+        <v>6460.656189999999</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-10431.43081</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>14800.35617</v>
+        <v>14811.56836</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>47629.41836</v>
+        <v>47359.27415</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>44339.95194</v>
+        <v>44186.79394999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>31331.99383</v>
+        <v>4872.720649999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>75544.22756</v>
+        <v>75504.71168000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>121146.74562</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>191481.0147</v>
+        <v>191215.06864</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>85091.72865999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>132652.20174</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>224436.534</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>255</v>
@@ -3041,31 +3213,34 @@
         <v>233</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>186</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>